--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0076B84-8693-47A5-955E-F00CFA04EA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -153,12 +152,21 @@
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=qjKU6soAAAAJ&amp;hl=en&amp;oi=sra</t>
+  </si>
+  <si>
+    <t>VEC-008-01-191</t>
+  </si>
+  <si>
+    <t>VEC-008-04-174</t>
+  </si>
+  <si>
+    <t>VEC-008-04-172</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,26 +536,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -601,8 +610,11 @@
       <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -612,8 +624,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -639,8 +654,11 @@
       <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -669,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -692,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -714,25 +732,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{65D885A8-E169-4C53-B691-43B87CCC59AC}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{8BC4EC5F-6E85-48FD-BB1B-E3344708809E}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{98C01224-629C-4E46-830A-60E4BA070B2F}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{BB409637-F7D4-4BF7-A121-908C9D6C694E}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{48054E73-9986-4E4D-8671-18D1A3F6FC78}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{A497E05B-180A-41A6-9A33-A3CBEB890BBC}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{8FE94DEC-6AFD-46F8-82AA-3200BD4BED19}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{21F3124A-0AB2-4B91-B73B-AE099A8CB124}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{36EC9665-2D1D-47A9-A6EF-1C51CDC67689}"/>
-    <hyperlink ref="I5" r:id="rId10" xr:uid="{44747E8F-498D-4663-A7AE-0AE2EE1DAE78}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{AE675673-A872-4E31-8BFF-0400DF0C3945}"/>
-    <hyperlink ref="E5" r:id="rId12" xr:uid="{FB60F5FD-FA35-463F-9974-492003FDA9A7}"/>
-    <hyperlink ref="F5" r:id="rId13" xr:uid="{87BA432E-F64A-490C-9916-ECCABCE96597}"/>
-    <hyperlink ref="H5" r:id="rId14" xr:uid="{76998C6D-B543-44F9-AB02-75D2787B9657}"/>
-    <hyperlink ref="I6" r:id="rId15" xr:uid="{2BFE2BCC-E348-416C-A5A1-C0D6B592D715}"/>
-    <hyperlink ref="D6" r:id="rId16" xr:uid="{72E96B87-EAF0-4E53-B1D0-0367BD6A0E53}"/>
-    <hyperlink ref="E6" r:id="rId17" xr:uid="{93277812-C82C-43AE-9DF1-D2A79B50FB1D}"/>
-    <hyperlink ref="I7" r:id="rId18" xr:uid="{456459F2-549C-4AA0-8F39-A585A0A37896}"/>
-    <hyperlink ref="D7" r:id="rId19" xr:uid="{E4D9C8E5-8C73-46EA-A204-EC6101E8FB10}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="I5" r:id="rId10"/>
+    <hyperlink ref="D5" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
+    <hyperlink ref="F5" r:id="rId13"/>
+    <hyperlink ref="H5" r:id="rId14"/>
+    <hyperlink ref="I6" r:id="rId15"/>
+    <hyperlink ref="D6" r:id="rId16"/>
+    <hyperlink ref="E6" r:id="rId17"/>
+    <hyperlink ref="I7" r:id="rId18"/>
+    <hyperlink ref="D7" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D4FFD-0BE7-4B9E-A4D0-67846DE85437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,9 +63,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Z. Brijet </t>
-  </si>
-  <si>
     <t>HOD &amp; PROFESSOR</t>
   </si>
   <si>
@@ -70,9 +84,6 @@
     <t>VEC-008-01-191</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. C. V. Dayakar </t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -80,10 +91,6 @@
   </si>
   <si>
     <t>VEC-008-04-174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Dr. S. N. Sivaraj </t>
   </si>
   <si>
     <t xml:space="preserve">/static/images/profile_photos/008/VEC-008-04-172.webp
@@ -108,9 +115,6 @@
     <t>VEC-008-04-172</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. S. Anusankari </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/008/VEC-008-04-128.webp</t>
   </si>
   <si>
@@ -132,9 +136,6 @@
     <t>VEC-008-04-128</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrs. S. Padma </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/008/VEC-008-04-072.webp</t>
   </si>
   <si>
@@ -150,9 +151,6 @@
     <t>VEC-008-04-072</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrs. C. Jayabharathi </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/008/VEC-008-04-011.webp</t>
   </si>
   <si>
@@ -163,13 +161,31 @@
   </si>
   <si>
     <t>VEC-008-04-011</t>
+  </si>
+  <si>
+    <t>Dr. BRIJET Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.DAYAKAR C V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dr. SIVARAJ S N</t>
+  </si>
+  <si>
+    <t>Dr. ANUSANKARI S</t>
+  </si>
+  <si>
+    <t>Mrs. PADMA S</t>
+  </si>
+  <si>
+    <t>Mrs. JAYABHARATHI C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,41 +257,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,10 +296,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -327,71 +337,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,7 +429,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -442,11 +452,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -455,13 +465,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -471,7 +481,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -480,7 +490,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,7 +499,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,10 +507,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -565,29 +575,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="54.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="36.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,162 +631,146 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="J7" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D4FFD-0BE7-4B9E-A4D0-67846DE85437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,9 +62,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>HOD &amp; PROFESSOR</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/008/VEC-008-01-191.webp</t>
   </si>
   <si>
@@ -180,12 +176,15 @@
   </si>
   <si>
     <t>Mrs. JAYABHARATHI C</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,14 +574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,144 +632,144 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" t="s">
         <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0091C-1586-4643-8DDA-5E0052941CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -179,12 +169,18 @@
   </si>
   <si>
     <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>MANOHARAN P A</t>
+  </si>
+  <si>
+    <t>DEAN RESEARCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,11 +248,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -273,6 +284,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,6 +784,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0091C-1586-4643-8DDA-5E0052941CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79442FE9-9F28-4CFB-9612-B6E3F7B08F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -175,13 +175,34 @@
   </si>
   <si>
     <t>DEAN RESEARCH</t>
+  </si>
+  <si>
+    <t>VENKATESAN A</t>
+  </si>
+  <si>
+    <t>GOKUL RAJ J</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/008/VEC-008-05-6.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/008/VEC-008-05-7.webp</t>
+  </si>
+  <si>
+    <t>VEC-008-05-7</t>
+  </si>
+  <si>
+    <t>VEC-008-05-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +229,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,6 +313,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +619,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,6 +820,34 @@
       <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79442FE9-9F28-4CFB-9612-B6E3F7B08F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34848BF6-8898-4E84-8963-F3798083B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2904" yWindow="3228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,16 +186,16 @@
     <t>Lab Instructor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/008/VEC-008-05-6.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/008/VEC-008-05-7.webp</t>
-  </si>
-  <si>
-    <t>VEC-008-05-7</t>
-  </si>
-  <si>
-    <t>VEC-008-05-6</t>
+    <t>/static/images/profile_photos/008/VEC-008-05-007.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/008/VEC-008-05-006.webp</t>
+  </si>
+  <si>
+    <t>VEC-008-05-007</t>
+  </si>
+  <si>
+    <t>VEC-008-05-006</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,9 +820,6 @@
       <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -847,6 +844,9 @@
       </c>
       <c r="C10" t="s">
         <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34848BF6-8898-4E84-8963-F3798083B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89283CD0-41B8-4092-8FE9-B2C3A6997D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="3228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,18 +171,9 @@
     <t>Professor &amp; Head</t>
   </si>
   <si>
-    <t>MANOHARAN P A</t>
-  </si>
-  <si>
     <t>DEAN RESEARCH</t>
   </si>
   <si>
-    <t>VENKATESAN A</t>
-  </si>
-  <si>
-    <t>GOKUL RAJ J</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -196,6 +187,15 @@
   </si>
   <si>
     <t>VEC-008-05-006</t>
+  </si>
+  <si>
+    <t>Mr. MANOHARAN P A</t>
+  </si>
+  <si>
+    <t>Mr. VENKATESAN A</t>
+  </si>
+  <si>
+    <t>Mr.GOKUL RAJ J</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,38 +815,38 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/008.xlsx
+++ b/docs/STAFF-DATA/008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89283CD0-41B8-4092-8FE9-B2C3A6997D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEACAB3-366C-49EF-9234-3D0E232172B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15048" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,33 +697,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -740,27 +719,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,32 +778,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
